--- a/data/processed_data/statistic_data/年报-股东股权转让.xlsx
+++ b/data/processed_data/statistic_data/年报-股东股权转让.xlsx
@@ -1,41 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="企业编号" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="变更前股权比例" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="变更后股权比例" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="股权变更日期" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="年报年份" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="企业编号" sheetId="1" r:id="rId1"/>
+    <sheet name="变更前股权比例" sheetId="2" r:id="rId2"/>
+    <sheet name="变更后股权比例" sheetId="3" r:id="rId3"/>
+    <sheet name="股权变更日期" sheetId="4" r:id="rId4"/>
+    <sheet name="年报年份" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>企业编号</t>
+  </si>
+  <si>
+    <t>变更前股权比例</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>变更后股权比例</t>
+  </si>
+  <si>
+    <t>股权变更日期</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>年报年份</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,26 +79,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -357,417 +395,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>企业编号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6855</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2628.574179431072</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>831.9839327628341</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2650.541367275714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>835.8941521241416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>2042</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>变更前股权比例</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>2195</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1064</v>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>885</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>变更后股权比例</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>2443</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>955</v>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股权变更日期</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>813</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2014-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>年报年份</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6849</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2014.885092714265</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.338053316313106</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2014.875436793422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1.331435672190176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
         <v>2013</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>2014</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:1">
+      <c r="A7">
         <v>2015</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:1">
+      <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/processed_data/statistic_data/年报-股东股权转让.xlsx
+++ b/data/processed_data/statistic_data/年报-股东股权转让.xlsx
@@ -18,12 +18,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>企业编号</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>变更前股权比例</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
   <si>
     <t>0%</t>
@@ -396,54 +429,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4871</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2650.541367275714</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>835.8941521241416</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2042</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>2463</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3497</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4000</v>
       </c>
     </row>
@@ -454,34 +511,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="B2">
         <v>4299</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>2195</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>885</v>
       </c>
     </row>
@@ -492,34 +561,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4304</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>2443</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>718</v>
       </c>
     </row>
@@ -530,34 +611,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4299</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>813</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>185</v>
       </c>
     </row>
@@ -568,54 +661,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2014.875436793422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.331435672190176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>4865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2014.875436793422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1.331435672190176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+      <c r="B7">
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2017</v>
       </c>
     </row>
